--- a/data/trans_orig/P04D_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04D_R-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>28462</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19601</v>
+        <v>19092</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40868</v>
+        <v>40333</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04046018012324954</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02786300244596388</v>
+        <v>0.02713909859943222</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05809426189996911</v>
+        <v>0.05733479139431669</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -764,19 +764,19 @@
         <v>30881</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20710</v>
+        <v>21465</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42719</v>
+        <v>43890</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04430269539524575</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02971150158584054</v>
+        <v>0.03079398961306156</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06128521638429407</v>
+        <v>0.06296521373049033</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -785,19 +785,19 @@
         <v>59344</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46737</v>
+        <v>46190</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76924</v>
+        <v>75825</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04237263208536511</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0333710481511964</v>
+        <v>0.03298058319489534</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05492517377971644</v>
+        <v>0.05414098814478802</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>477118</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>450882</v>
+        <v>450676</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>503528</v>
+        <v>501108</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.678235911280944</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6409411390283388</v>
+        <v>0.6406474926052117</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.715778037489406</v>
+        <v>0.7123389348653051</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>438</v>
@@ -835,19 +835,19 @@
         <v>473501</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>447751</v>
+        <v>447189</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>499274</v>
+        <v>497451</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6792922198816692</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.642351036083187</v>
+        <v>0.6415451258993564</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7162665114151909</v>
+        <v>0.7136519703866125</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>897</v>
@@ -856,19 +856,19 @@
         <v>950619</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>914426</v>
+        <v>917244</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>985947</v>
+        <v>985547</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6787616448989152</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6529196780147866</v>
+        <v>0.6549316433257463</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7039871928613547</v>
+        <v>0.7037011351492873</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>197889</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>173304</v>
+        <v>174899</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>222809</v>
+        <v>223984</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2813039085958065</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2463558601053811</v>
+        <v>0.2486230345055658</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3167286329632973</v>
+        <v>0.3183999139427183</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>183</v>
@@ -906,19 +906,19 @@
         <v>192668</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>170442</v>
+        <v>169860</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>218096</v>
+        <v>217463</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.276405084723085</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2445197079315544</v>
+        <v>0.2436847815132313</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3128849882083398</v>
+        <v>0.3119757442157172</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>369</v>
@@ -927,19 +927,19 @@
         <v>390557</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>356056</v>
+        <v>358173</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>423748</v>
+        <v>423656</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2788657230157197</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2542317740602931</v>
+        <v>0.2557433785283855</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3025647076312216</v>
+        <v>0.3024996435947448</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>30358</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>20160</v>
+        <v>20719</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>44883</v>
+        <v>44676</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02982253213375896</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01980466501361318</v>
+        <v>0.02035366073073153</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04409147784256121</v>
+        <v>0.04388836968591727</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>29</v>
@@ -1052,19 +1052,19 @@
         <v>31862</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>22213</v>
+        <v>22508</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>45235</v>
+        <v>46424</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03086836703383675</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02152054263917469</v>
+        <v>0.02180646548920563</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04382459777197097</v>
+        <v>0.04497654944529181</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>55</v>
@@ -1073,19 +1073,19 @@
         <v>62220</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>47196</v>
+        <v>47748</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>79284</v>
+        <v>82638</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03034908091792662</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0230207863166788</v>
+        <v>0.02329040596833279</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03867259452865572</v>
+        <v>0.04030853151666995</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>670032</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>637111</v>
+        <v>640026</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>699759</v>
+        <v>701277</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6582192574378051</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6258783150950048</v>
+        <v>0.6287415057376341</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6874217869164913</v>
+        <v>0.6889127510909304</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>637</v>
@@ -1123,19 +1123,19 @@
         <v>700638</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>667623</v>
+        <v>669272</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>729055</v>
+        <v>731877</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6787922359712494</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6468057313805156</v>
+        <v>0.6484036111044463</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7063228463726707</v>
+        <v>0.7090568762523166</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1256</v>
@@ -1144,19 +1144,19 @@
         <v>1370671</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1327229</v>
+        <v>1321968</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1418532</v>
+        <v>1411250</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6685771799289046</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6473875812156598</v>
+        <v>0.6448214621759291</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6919227898794064</v>
+        <v>0.688370480211385</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>317557</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>286918</v>
+        <v>285512</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>349965</v>
+        <v>345956</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3119582104284359</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2818599525077251</v>
+        <v>0.280478266707936</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3437952647487484</v>
+        <v>0.3398562515054023</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>274</v>
@@ -1194,19 +1194,19 @@
         <v>299684</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>270880</v>
+        <v>269244</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>331512</v>
+        <v>331727</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2903393969949139</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2624336657444457</v>
+        <v>0.2608486515885005</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3211755545832394</v>
+        <v>0.3213832298251078</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>565</v>
@@ -1215,19 +1215,19 @@
         <v>617241</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>571615</v>
+        <v>575857</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>661978</v>
+        <v>662092</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3010737391531688</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2788185477572787</v>
+        <v>0.2808880887889068</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3228953322345372</v>
+        <v>0.3229508489890354</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>56034</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>41138</v>
+        <v>41672</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>72936</v>
+        <v>75549</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07396078381364486</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05429927385670734</v>
+        <v>0.05500394792655158</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09626908163673606</v>
+        <v>0.09971879052440416</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>36</v>
@@ -1340,19 +1340,19 @@
         <v>42153</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>29653</v>
+        <v>28664</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>57428</v>
+        <v>57997</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0542385044898654</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03815506525134478</v>
+        <v>0.03688241685523259</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07389280204931148</v>
+        <v>0.07462538662269226</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>86</v>
@@ -1361,19 +1361,19 @@
         <v>98187</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>80595</v>
+        <v>80769</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>122407</v>
+        <v>120925</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06397403010403561</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05251208907591039</v>
+        <v>0.05262545395355283</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07975420058434139</v>
+        <v>0.0787892209142652</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>505873</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>477263</v>
+        <v>478551</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>534922</v>
+        <v>532408</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6677110310287344</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6299480072862377</v>
+        <v>0.631647796843626</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7060531976587789</v>
+        <v>0.7027353726567287</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>509</v>
@@ -1411,19 +1411,19 @@
         <v>559130</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>529623</v>
+        <v>529320</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>584340</v>
+        <v>580634</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7194396629483379</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6814722776425928</v>
+        <v>0.6810831869798323</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7518782831742471</v>
+        <v>0.7471100247765037</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>966</v>
@@ -1432,19 +1432,19 @@
         <v>1065003</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1028940</v>
+        <v>1031246</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1100179</v>
+        <v>1107154</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6939048141222147</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6704078663966342</v>
+        <v>0.6719102164836979</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7168236054595228</v>
+        <v>0.7213682257417088</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>195715</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>170666</v>
+        <v>170779</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>224880</v>
+        <v>219566</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2583281851576208</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.225265615241091</v>
+        <v>0.2254144885311352</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2968229265699961</v>
+        <v>0.2898094756891967</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>160</v>
@@ -1482,19 +1482,19 @@
         <v>175891</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>152877</v>
+        <v>155984</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>202642</v>
+        <v>201695</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2263218325617967</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1967083734928963</v>
+        <v>0.2007069722754151</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.260741495997039</v>
+        <v>0.2595230694335017</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>342</v>
@@ -1503,19 +1503,19 @@
         <v>371607</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>335374</v>
+        <v>335760</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>405774</v>
+        <v>406152</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2421211557737497</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2185138894454089</v>
+        <v>0.2187652396529852</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2643828553860185</v>
+        <v>0.2646289354900661</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>27261</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18169</v>
+        <v>18376</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39060</v>
+        <v>39383</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02876450194379913</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.019171026650498</v>
+        <v>0.0193894911641952</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04121376140344311</v>
+        <v>0.04155425591397369</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -1628,19 +1628,19 @@
         <v>54680</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42164</v>
+        <v>41493</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>71837</v>
+        <v>69766</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05198167048169375</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04008388599775141</v>
+        <v>0.03944601191871206</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06829227827508794</v>
+        <v>0.06632370651853743</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>78</v>
@@ -1649,19 +1649,19 @@
         <v>81941</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>65402</v>
+        <v>63685</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>100145</v>
+        <v>101485</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04097777950893755</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03270702100490883</v>
+        <v>0.03184813543762256</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05008157148431173</v>
+        <v>0.0507513932442159</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>503552</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>466939</v>
+        <v>472003</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>533834</v>
+        <v>533019</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5313189838559615</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4926876655436043</v>
+        <v>0.4980308427174856</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5632707790165862</v>
+        <v>0.5624114603594358</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>534</v>
@@ -1699,19 +1699,19 @@
         <v>561918</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>528807</v>
+        <v>529003</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>595032</v>
+        <v>595790</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5341926327529466</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5027158590826076</v>
+        <v>0.5029014747555451</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5656727197843747</v>
+        <v>0.5663931364478845</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1019</v>
@@ -1720,19 +1720,19 @@
         <v>1065469</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1018543</v>
+        <v>1020892</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1111178</v>
+        <v>1110773</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.53283065275505</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5093630835691363</v>
+        <v>0.5105378137305863</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5556890433403053</v>
+        <v>0.5554866712661696</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>416926</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>385283</v>
+        <v>390015</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>452173</v>
+        <v>448683</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4399165142002393</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4065284900468539</v>
+        <v>0.4115211060887906</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4771069255517876</v>
+        <v>0.4734244624333152</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>417</v>
@@ -1770,19 +1770,19 @@
         <v>435304</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>404243</v>
+        <v>403392</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>469347</v>
+        <v>466915</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4138256967653597</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3842979563111066</v>
+        <v>0.3834882226297083</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4461889051457975</v>
+        <v>0.4438772660691075</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>816</v>
@@ -1791,19 +1791,19 @@
         <v>852230</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>807622</v>
+        <v>807686</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>901344</v>
+        <v>898219</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4261915677360124</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4038835435663955</v>
+        <v>0.4039157684860131</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4507531018940349</v>
+        <v>0.4491901431653421</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>142116</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>118076</v>
+        <v>119009</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>169699</v>
+        <v>169086</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04147215668289891</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03445685488922205</v>
+        <v>0.03472899749775311</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04952132051060241</v>
+        <v>0.0493425360695507</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>146</v>
@@ -1916,19 +1916,19 @@
         <v>159575</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>133250</v>
+        <v>137064</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>186663</v>
+        <v>187281</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04484583965536622</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03744753502678336</v>
+        <v>0.03851932523861787</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05245832273114692</v>
+        <v>0.05263215721308617</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>277</v>
@@ -1937,19 +1937,19 @@
         <v>301691</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>266052</v>
+        <v>267703</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>335590</v>
+        <v>338684</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04319076164117992</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03808863956928431</v>
+        <v>0.03832497001277393</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04804381331245321</v>
+        <v>0.04848678403841673</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>2156576</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2097902</v>
+        <v>2097269</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2212810</v>
+        <v>2216805</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6293302895331054</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.612208012149543</v>
+        <v>0.6120235505871185</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6457405224864627</v>
+        <v>0.6469061778886458</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2118</v>
@@ -1987,19 +1987,19 @@
         <v>2295187</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2239882</v>
+        <v>2240537</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2355447</v>
+        <v>2353299</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6450217478042946</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6294792735502627</v>
+        <v>0.6296635307655051</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6619567657388628</v>
+        <v>0.6613532997828454</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4138</v>
@@ -2008,19 +2008,19 @@
         <v>4451763</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4365032</v>
+        <v>4368369</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4534450</v>
+        <v>4527074</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6373237548965099</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6249072100728844</v>
+        <v>0.6253849541912718</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6491614770110109</v>
+        <v>0.6481055319882401</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>1128087</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1069904</v>
+        <v>1074843</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1183869</v>
+        <v>1187782</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3291975537839956</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3122184677541782</v>
+        <v>0.3136599328582205</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3454758539921698</v>
+        <v>0.3466174853410441</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1034</v>
@@ -2058,19 +2058,19 @@
         <v>1103547</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1047675</v>
+        <v>1048697</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1156879</v>
+        <v>1155965</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3101324125403392</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2944304943658164</v>
+        <v>0.2947178460237233</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3251204114821131</v>
+        <v>0.3248635892367646</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2092</v>
@@ -2079,19 +2079,19 @@
         <v>2231634</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2150068</v>
+        <v>2157199</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2313783</v>
+        <v>2309596</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3194854834623101</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3078082258041611</v>
+        <v>0.3088291087769775</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3312461390284757</v>
+        <v>0.3306466277785375</v>
       </c>
     </row>
     <row r="23">
@@ -2423,19 +2423,19 @@
         <v>125393</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>105547</v>
+        <v>103295</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>149444</v>
+        <v>149920</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1858230773512226</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1564129533990357</v>
+        <v>0.1530743012506603</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2214637524148313</v>
+        <v>0.222169294103417</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>115</v>
@@ -2444,19 +2444,19 @@
         <v>115038</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>95837</v>
+        <v>96420</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>134220</v>
+        <v>134266</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.170973874127498</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1424363287922329</v>
+        <v>0.1433024841496439</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1994833959996985</v>
+        <v>0.1995516778293809</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>230</v>
@@ -2465,19 +2465,19 @@
         <v>240431</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>210799</v>
+        <v>214930</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>269793</v>
+        <v>273354</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.178409279566088</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.156421268487151</v>
+        <v>0.1594862403356229</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2001967799852354</v>
+        <v>0.2028393410589536</v>
       </c>
     </row>
     <row r="5">
@@ -2494,19 +2494,19 @@
         <v>364480</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>339982</v>
+        <v>336027</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>393952</v>
+        <v>389613</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5401306397837924</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5038258375601482</v>
+        <v>0.4979649323877065</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5838049193143973</v>
+        <v>0.5773762188157731</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>371</v>
@@ -2515,19 +2515,19 @@
         <v>373643</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>349277</v>
+        <v>347586</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>400153</v>
+        <v>401692</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5553225853131724</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5191098386097058</v>
+        <v>0.5165966527340496</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5947237693872428</v>
+        <v>0.5970099621550843</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>732</v>
@@ -2536,19 +2536,19 @@
         <v>738123</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>699287</v>
+        <v>699389</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>775637</v>
+        <v>772100</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5477155593529214</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5188980172127018</v>
+        <v>0.5189736401325238</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5755527966962397</v>
+        <v>0.5729276546797234</v>
       </c>
     </row>
     <row r="6">
@@ -2565,19 +2565,19 @@
         <v>184926</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>160838</v>
+        <v>161504</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>208811</v>
+        <v>208776</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.274046282864985</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2383491563007925</v>
+        <v>0.2393355891428872</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.309441643802098</v>
+        <v>0.3093898996195534</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>180</v>
@@ -2586,19 +2586,19 @@
         <v>184158</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>163564</v>
+        <v>158834</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>209694</v>
+        <v>206263</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2737035405593296</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2430959791413625</v>
+        <v>0.2360656054608967</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3116548725150914</v>
+        <v>0.3065565644746551</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>356</v>
@@ -2607,19 +2607,19 @@
         <v>369085</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>337243</v>
+        <v>335754</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>406557</v>
+        <v>402674</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2738751610809906</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2502474560029176</v>
+        <v>0.249142234580083</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3016805996254487</v>
+        <v>0.2987995025019897</v>
       </c>
     </row>
     <row r="7">
@@ -2711,19 +2711,19 @@
         <v>151077</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>129496</v>
+        <v>128280</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>175855</v>
+        <v>177922</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1477627000747523</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1266552606728801</v>
+        <v>0.1254658160692591</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1719968531981623</v>
+        <v>0.1740185684730172</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>139</v>
@@ -2732,19 +2732,19 @@
         <v>144257</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>121927</v>
+        <v>122590</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>168694</v>
+        <v>167595</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.138321501971419</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1169102733872686</v>
+        <v>0.1175458530634244</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1617523095288561</v>
+        <v>0.1606990946588571</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>276</v>
@@ -2753,19 +2753,19 @@
         <v>295334</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>266881</v>
+        <v>263537</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>330177</v>
+        <v>327696</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1429952868564809</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1292186247621938</v>
+        <v>0.1275995081453603</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1598654972920769</v>
+        <v>0.1586642263036761</v>
       </c>
     </row>
     <row r="9">
@@ -2782,19 +2782,19 @@
         <v>577914</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>544381</v>
+        <v>542333</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>610726</v>
+        <v>607691</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5652350968989384</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5324374556426932</v>
+        <v>0.5304351119359169</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5973271100819146</v>
+        <v>0.5943587674554049</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>549</v>
@@ -2803,19 +2803,19 @@
         <v>588386</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>551787</v>
+        <v>556364</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>620885</v>
+        <v>623430</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5641751428445729</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5290823336514581</v>
+        <v>0.5334710251297516</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5953373995950321</v>
+        <v>0.5977777459622595</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1089</v>
@@ -2824,19 +2824,19 @@
         <v>1166299</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1118579</v>
+        <v>1119004</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1214976</v>
+        <v>1212276</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5646998640911702</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5415946188677906</v>
+        <v>0.5418005340476518</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5882680708702438</v>
+        <v>0.5869606140010691</v>
       </c>
     </row>
     <row r="10">
@@ -2853,19 +2853,19 @@
         <v>293440</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>263577</v>
+        <v>264106</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>322991</v>
+        <v>324981</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2870022030263094</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2577943662454075</v>
+        <v>0.2583116309675103</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3159045461032681</v>
+        <v>0.3178511604838169</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>289</v>
@@ -2874,19 +2874,19 @@
         <v>310270</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>282587</v>
+        <v>280421</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>343501</v>
+        <v>339922</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2975033551840081</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2709592178573054</v>
+        <v>0.2688821826924586</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3293666659658146</v>
+        <v>0.325934693775003</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>563</v>
@@ -2895,19 +2895,19 @@
         <v>603710</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>559082</v>
+        <v>563548</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>647140</v>
+        <v>645754</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2923048490523489</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2706969863798139</v>
+        <v>0.2728592681863378</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3133329809235653</v>
+        <v>0.3126615073346248</v>
       </c>
     </row>
     <row r="11">
@@ -2999,19 +2999,19 @@
         <v>155593</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>132194</v>
+        <v>133716</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>180118</v>
+        <v>178456</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2048481367696354</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1740425450253868</v>
+        <v>0.1760455638312799</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2371365216564112</v>
+        <v>0.2349484970842255</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>139</v>
@@ -3020,19 +3020,19 @@
         <v>152581</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>132635</v>
+        <v>131060</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>177442</v>
+        <v>179126</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1943679276662212</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1689599494699128</v>
+        <v>0.1669529601922138</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2260380097640294</v>
+        <v>0.2281825387303512</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>280</v>
@@ -3041,19 +3041,19 @@
         <v>308174</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>276580</v>
+        <v>278465</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>339945</v>
+        <v>339494</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.19952166094008</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1790670118041518</v>
+        <v>0.1802874237490005</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2200915162833816</v>
+        <v>0.2197993431359643</v>
       </c>
     </row>
     <row r="13">
@@ -3070,19 +3070,19 @@
         <v>326271</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>301440</v>
+        <v>297200</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>354943</v>
+        <v>353266</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4295567201259401</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3968657002169203</v>
+        <v>0.3912833979829178</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4673053962312851</v>
+        <v>0.4650984784745389</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>310</v>
@@ -3091,19 +3091,19 @@
         <v>321541</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>295418</v>
+        <v>292406</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>347807</v>
+        <v>350610</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.409601134062399</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3763229244924857</v>
+        <v>0.3724863455660473</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4430602871411592</v>
+        <v>0.4466306351533762</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>615</v>
@@ -3112,19 +3112,19 @@
         <v>647812</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>608429</v>
+        <v>608526</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>687896</v>
+        <v>691258</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4194144657316612</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3939165145875789</v>
+        <v>0.3939795996707328</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4453664181022215</v>
+        <v>0.4475430534947947</v>
       </c>
     </row>
     <row r="14">
@@ -3141,19 +3141,19 @@
         <v>277689</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>248984</v>
+        <v>253558</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>302170</v>
+        <v>307621</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3655951431044245</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3278039286547814</v>
+        <v>0.3338251697789787</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3978260569506555</v>
+        <v>0.4050038398808309</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>287</v>
@@ -3162,19 +3162,19 @@
         <v>310889</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>282437</v>
+        <v>281748</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>338186</v>
+        <v>338890</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3960309382713799</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3597874563707761</v>
+        <v>0.3589098873668192</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4308037564963996</v>
+        <v>0.4317012803208221</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>537</v>
@@ -3183,19 +3183,19 @@
         <v>588577</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>552383</v>
+        <v>546034</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>631534</v>
+        <v>629611</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3810638733282589</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3576306206095605</v>
+        <v>0.3535197982369044</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4088758102191736</v>
+        <v>0.4076306786166101</v>
       </c>
     </row>
     <row r="15">
@@ -3287,19 +3287,19 @@
         <v>101508</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81619</v>
+        <v>82625</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>121949</v>
+        <v>122966</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1082671443297914</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08705383131632952</v>
+        <v>0.08812695028780136</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1300696904351026</v>
+        <v>0.1311547634812261</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>93</v>
@@ -3308,19 +3308,19 @@
         <v>102918</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>83507</v>
+        <v>83500</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>125415</v>
+        <v>124558</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09860146957238716</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08000451597130893</v>
+        <v>0.07999743308460787</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1201550103983706</v>
+        <v>0.1193341469794605</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>187</v>
@@ -3329,19 +3329,19 @@
         <v>204426</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>179262</v>
+        <v>178842</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>233303</v>
+        <v>235713</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1031752379212098</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09047488864728334</v>
+        <v>0.09026289804810157</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1177495066284366</v>
+        <v>0.1189662621531502</v>
       </c>
     </row>
     <row r="17">
@@ -3358,19 +3358,19 @@
         <v>527761</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>497317</v>
+        <v>495130</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>557853</v>
+        <v>559422</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5629051605790487</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5304340196344838</v>
+        <v>0.5281013018510343</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.595000866777027</v>
+        <v>0.5966745512049644</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>522</v>
@@ -3379,19 +3379,19 @@
         <v>563266</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>530649</v>
+        <v>530562</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>599294</v>
+        <v>598877</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5396412345914027</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5083916789209093</v>
+        <v>0.5083083691137875</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5741577468159548</v>
+        <v>0.5737588056724237</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1053</v>
@@ -3400,19 +3400,19 @@
         <v>1091027</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1047454</v>
+        <v>1043127</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1138091</v>
+        <v>1137666</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5506496546988698</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5286577102054955</v>
+        <v>0.5264737214590005</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5744028281321548</v>
+        <v>0.5741886859391722</v>
       </c>
     </row>
     <row r="18">
@@ -3429,19 +3429,19 @@
         <v>308298</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>281002</v>
+        <v>278931</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>336717</v>
+        <v>336776</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3288276950911599</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2997137492798788</v>
+        <v>0.2975052690169848</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3591388469547485</v>
+        <v>0.359202237934136</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>344</v>
@@ -3450,19 +3450,19 @@
         <v>377595</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>343529</v>
+        <v>343930</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>407335</v>
+        <v>409083</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3617572958362102</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3291205065602882</v>
+        <v>0.3295047809236433</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.390250315665421</v>
+        <v>0.3919251943415649</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>651</v>
@@ -3471,19 +3471,19 @@
         <v>685893</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>642626</v>
+        <v>637676</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>734192</v>
+        <v>731093</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3461751073799203</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3243383016209647</v>
+        <v>0.3218400195112773</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3705523820691201</v>
+        <v>0.368987968116436</v>
       </c>
     </row>
     <row r="19">
@@ -3575,19 +3575,19 @@
         <v>533571</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>488021</v>
+        <v>492647</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>582663</v>
+        <v>578845</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1571938985939024</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1437744804225518</v>
+        <v>0.1451373952279078</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1716566963735141</v>
+        <v>0.1705318568377573</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>486</v>
@@ -3596,19 +3596,19 @@
         <v>514794</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>474258</v>
+        <v>472754</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>559323</v>
+        <v>554661</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1452357703090898</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1337995162809068</v>
+        <v>0.1333751842801375</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1577984943530133</v>
+        <v>0.1564832178878363</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>973</v>
@@ -3617,19 +3617,19 @@
         <v>1048365</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>989118</v>
+        <v>986310</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1114903</v>
+        <v>1109008</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1510854181844992</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.142546954119912</v>
+        <v>0.1421422505780028</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.160674452504115</v>
+        <v>0.1598248832254253</v>
       </c>
     </row>
     <row r="21">
@@ -3646,19 +3646,19 @@
         <v>1796426</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1737989</v>
+        <v>1733991</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1855677</v>
+        <v>1852082</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5292400525180573</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5120241060285695</v>
+        <v>0.5108463152860344</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5466957648132231</v>
+        <v>0.5456368302564469</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1752</v>
@@ -3667,19 +3667,19 @@
         <v>1846836</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1791741</v>
+        <v>1785722</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1904778</v>
+        <v>1909830</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5210365309239655</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5054929266296825</v>
+        <v>0.5037947504817148</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5373833892782369</v>
+        <v>0.5388086421735229</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3489</v>
@@ -3688,19 +3688,19 @@
         <v>3643262</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3564078</v>
+        <v>3556077</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3729625</v>
+        <v>3729663</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5250495095039579</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5136379400144804</v>
+        <v>0.5124847930156491</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5374958019189193</v>
+        <v>0.5375012762103101</v>
       </c>
     </row>
     <row r="22">
@@ -3717,19 +3717,19 @@
         <v>1064353</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1010576</v>
+        <v>1011275</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1117210</v>
+        <v>1122178</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3135660488880403</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.297723059700196</v>
+        <v>0.2979289673806821</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3291381278155804</v>
+        <v>0.3306016851538794</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1100</v>
@@ -3738,19 +3738,19 @@
         <v>1182912</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1127427</v>
+        <v>1121299</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1237127</v>
+        <v>1239261</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3337276987669447</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3180741037569381</v>
+        <v>0.3163453277571637</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3490231669312578</v>
+        <v>0.3496250565594657</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2107</v>
@@ -3759,19 +3759,19 @@
         <v>2247265</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2169572</v>
+        <v>2166454</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2326114</v>
+        <v>2327530</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3238650723115429</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3126683080654864</v>
+        <v>0.3122189984256251</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3352284865348037</v>
+        <v>0.3354324656148778</v>
       </c>
     </row>
     <row r="23">
@@ -4103,19 +4103,19 @@
         <v>32310</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22509</v>
+        <v>21953</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47131</v>
+        <v>46690</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04685185042610492</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03264017729799445</v>
+        <v>0.03183323054620223</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06834240498862078</v>
+        <v>0.06770336247112763</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>62</v>
@@ -4124,19 +4124,19 @@
         <v>42444</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32584</v>
+        <v>32432</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54474</v>
+        <v>55661</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05781084732253065</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04438196977030992</v>
+        <v>0.04417444791757279</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07419771196866956</v>
+        <v>0.07581354728159241</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>92</v>
@@ -4145,19 +4145,19 @@
         <v>74754</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>59569</v>
+        <v>60388</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>91407</v>
+        <v>93185</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05250282243748745</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04183760832952839</v>
+        <v>0.04241284153904244</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06419889844166367</v>
+        <v>0.06544814503307606</v>
       </c>
     </row>
     <row r="5">
@@ -4174,19 +4174,19 @@
         <v>514474</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>488723</v>
+        <v>485710</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>538019</v>
+        <v>537994</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7460203338449355</v>
+        <v>0.7460203338449356</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7086804401366149</v>
+        <v>0.7043120113830794</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7801633926954435</v>
+        <v>0.780125970102918</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>938</v>
@@ -4195,19 +4195,19 @@
         <v>534808</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>513554</v>
+        <v>509618</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>555183</v>
+        <v>553318</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7284427782667277</v>
+        <v>0.7284427782667274</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6994936783809599</v>
+        <v>0.6941325534060006</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7561943464498693</v>
+        <v>0.753654290914625</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1494</v>
@@ -4216,19 +4216,19 @@
         <v>1049282</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1014489</v>
+        <v>1015325</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1079627</v>
+        <v>1081927</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7369565230290598</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7125198574250532</v>
+        <v>0.7131072774023831</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7582693836137658</v>
+        <v>0.7598847440035</v>
       </c>
     </row>
     <row r="6">
@@ -4245,19 +4245,19 @@
         <v>142840</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>119309</v>
+        <v>119759</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>169481</v>
+        <v>169559</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2071278157289595</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1730056422381294</v>
+        <v>0.1736585007067421</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2457579934772766</v>
+        <v>0.2458718046840902</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>241</v>
@@ -4266,19 +4266,19 @@
         <v>156928</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>137938</v>
+        <v>140082</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>175555</v>
+        <v>178268</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2137463744107417</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.187880701372935</v>
+        <v>0.1907999788045429</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2391164965025218</v>
+        <v>0.2428118322203396</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>384</v>
@@ -4287,19 +4287,19 @@
         <v>299769</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>268865</v>
+        <v>269129</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>332849</v>
+        <v>335523</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2105406545334529</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1888356697721033</v>
+        <v>0.1890211301070391</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.233774307345971</v>
+        <v>0.2356527914937382</v>
       </c>
     </row>
     <row r="7">
@@ -4391,19 +4391,19 @@
         <v>108914</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>86486</v>
+        <v>85619</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>134444</v>
+        <v>132858</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1038349611227208</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08245252134919083</v>
+        <v>0.08162609887014259</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1281745391277249</v>
+        <v>0.1266624628760532</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>132</v>
@@ -4412,19 +4412,19 @@
         <v>97262</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>80580</v>
+        <v>81393</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>116325</v>
+        <v>115080</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.0907743957953465</v>
+        <v>0.09077439579534649</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07520442551429234</v>
+        <v>0.07596344379124295</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1085657832440861</v>
+        <v>0.1074032568789554</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>218</v>
@@ -4433,19 +4433,19 @@
         <v>206177</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>179999</v>
+        <v>178422</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>238478</v>
+        <v>236900</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.09723520797682189</v>
+        <v>0.09723520797682191</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.084889458844607</v>
+        <v>0.08414558436531136</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1124690502748081</v>
+        <v>0.1117244813803087</v>
       </c>
     </row>
     <row r="9">
@@ -4462,19 +4462,19 @@
         <v>676812</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>638300</v>
+        <v>639687</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>714597</v>
+        <v>711489</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6452482535537749</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6085321843087503</v>
+        <v>0.6098543743039109</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6812713298186513</v>
+        <v>0.6783078151951571</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1064</v>
@@ -4483,19 +4483,19 @@
         <v>742138</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>715122</v>
+        <v>714894</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>770753</v>
+        <v>768284</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6926327849754115</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6674186702827732</v>
+        <v>0.6672057649676175</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7193387460167627</v>
+        <v>0.7170348710779507</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1713</v>
@@ -4504,19 +4504,19 @@
         <v>1418950</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1375984</v>
+        <v>1371132</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1460797</v>
+        <v>1465108</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6691925624315408</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6489292911054991</v>
+        <v>0.6466410975904573</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6889281888047596</v>
+        <v>0.69096144671268</v>
       </c>
     </row>
     <row r="10">
@@ -4533,19 +4533,19 @@
         <v>263191</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>231032</v>
+        <v>232115</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>296672</v>
+        <v>298313</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2509167853235044</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2202573055680495</v>
+        <v>0.2212905359881621</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2828360886200194</v>
+        <v>0.2844008117512763</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>321</v>
@@ -4554,19 +4554,19 @@
         <v>232074</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>208322</v>
+        <v>206935</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>256418</v>
+        <v>259688</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.216592819229242</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1944254097380928</v>
+        <v>0.1931315429282861</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2393137218783139</v>
+        <v>0.2423655323843223</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>550</v>
@@ -4575,19 +4575,19 @@
         <v>495264</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>458125</v>
+        <v>454469</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>535077</v>
+        <v>537028</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2335722295916372</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2160569598334043</v>
+        <v>0.2143327154175499</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2523480572135433</v>
+        <v>0.2532683502140961</v>
       </c>
     </row>
     <row r="11">
@@ -4679,19 +4679,19 @@
         <v>175492</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>149903</v>
+        <v>148374</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>206273</v>
+        <v>201230</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2185260458697647</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1866614265330765</v>
+        <v>0.1847575132326843</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2568541293861404</v>
+        <v>0.2505755995585666</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>254</v>
@@ -4700,19 +4700,19 @@
         <v>194190</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>170652</v>
+        <v>172244</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>217826</v>
+        <v>218457</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2390742307006548</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2100954157760497</v>
+        <v>0.2120554516065077</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2681725774543343</v>
+        <v>0.2689496589811879</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>405</v>
@@ -4721,19 +4721,19 @@
         <v>369683</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>333422</v>
+        <v>335171</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>405282</v>
+        <v>405055</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.2288585626033443</v>
+        <v>0.2288585626033444</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.206410708204488</v>
+        <v>0.2074935325634487</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2508967575107521</v>
+        <v>0.2507562653294233</v>
       </c>
     </row>
     <row r="13">
@@ -4750,19 +4750,19 @@
         <v>501185</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>464460</v>
+        <v>466567</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>528198</v>
+        <v>532049</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.6240842211401998</v>
+        <v>0.6240842211401996</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5783530554773406</v>
+        <v>0.5809770953100347</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6577211742974474</v>
+        <v>0.6625166394392447</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>651</v>
@@ -4771,19 +4771,19 @@
         <v>511530</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>483515</v>
+        <v>485255</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>535754</v>
+        <v>536025</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6297618198131775</v>
+        <v>0.6297618198131776</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5952724784880161</v>
+        <v>0.5974145612697215</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.659585165182174</v>
+        <v>0.659919417689614</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1063</v>
@@ -4792,19 +4792,19 @@
         <v>1012715</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>974349</v>
+        <v>973558</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1053870</v>
+        <v>1053281</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6269391635002132</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6031881708274643</v>
+        <v>0.602698425656664</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6524167433742972</v>
+        <v>0.6520524475868178</v>
       </c>
     </row>
     <row r="14">
@@ -4821,19 +4821,19 @@
         <v>126395</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>105414</v>
+        <v>106388</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>149647</v>
+        <v>151645</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1573897329900357</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1312637667351237</v>
+        <v>0.1324761138594892</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.18634324422044</v>
+        <v>0.1888314211553323</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>142</v>
@@ -4842,19 +4842,19 @@
         <v>106539</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>90277</v>
+        <v>90777</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>125521</v>
+        <v>125628</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1311639494861676</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1111437361707809</v>
+        <v>0.1117589742394489</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1545329710423713</v>
+        <v>0.1546649855099488</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>255</v>
@@ -4863,19 +4863,19 @@
         <v>232935</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>205733</v>
+        <v>205596</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>264919</v>
+        <v>264688</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1442022738964425</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1273627590500746</v>
+        <v>0.1272781508761109</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.164002637937523</v>
+        <v>0.1638597182630653</v>
       </c>
     </row>
     <row r="15">
@@ -4967,19 +4967,19 @@
         <v>117561</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>95862</v>
+        <v>95351</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>143277</v>
+        <v>141286</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1187405529232143</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09682428345407953</v>
+        <v>0.09630851992297791</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1447147133828443</v>
+        <v>0.1427041387695099</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>164</v>
@@ -4988,19 +4988,19 @@
         <v>122233</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>104671</v>
+        <v>104275</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>142339</v>
+        <v>142982</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1092300150009922</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09353641487506303</v>
+        <v>0.09318229926917435</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1271973470965361</v>
+        <v>0.1277719154860131</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>266</v>
@@ -5009,19 +5009,19 @@
         <v>239793</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>212057</v>
+        <v>209805</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>269319</v>
+        <v>271567</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1136944824155679</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1005437412859943</v>
+        <v>0.09947601420190078</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1276935150609136</v>
+        <v>0.1287593775337202</v>
       </c>
     </row>
     <row r="17">
@@ -5038,19 +5038,19 @@
         <v>559963</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>526595</v>
+        <v>525822</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>594215</v>
+        <v>592868</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5655835379077491</v>
+        <v>0.565583537907749</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5318811282171512</v>
+        <v>0.5311003837150577</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6001795147838266</v>
+        <v>0.5988195019988842</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>896</v>
@@ -5059,19 +5059,19 @@
         <v>634723</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>604541</v>
+        <v>602757</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>663005</v>
+        <v>664648</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5672026131006446</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5402309244374643</v>
+        <v>0.5386375409871261</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5924763285864501</v>
+        <v>0.5939438925192568</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1481</v>
@@ -5080,19 +5080,19 @@
         <v>1194686</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1154526</v>
+        <v>1149830</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1241120</v>
+        <v>1237361</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5664425815966915</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5474009628408111</v>
+        <v>0.5451748516490578</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5884582841595133</v>
+        <v>0.5866762067753696</v>
       </c>
     </row>
     <row r="18">
@@ -5109,19 +5109,19 @@
         <v>312539</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>278290</v>
+        <v>283261</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>342353</v>
+        <v>347400</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3156759091690368</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2810835470298513</v>
+        <v>0.2861038513451842</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3457894748404816</v>
+        <v>0.3508869421907665</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>502</v>
@@ -5130,19 +5130,19 @@
         <v>362085</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>333230</v>
+        <v>333595</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>388489</v>
+        <v>390768</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3235673718983633</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.297781433751965</v>
+        <v>0.2981083361256702</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.347162464547821</v>
+        <v>0.349198830445333</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>821</v>
@@ -5151,19 +5151,19 @@
         <v>674624</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>634726</v>
+        <v>635139</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>718872</v>
+        <v>718610</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3198629359877407</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3009457800690563</v>
+        <v>0.3011417753983309</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3408423964750782</v>
+        <v>0.3407183519074722</v>
       </c>
     </row>
     <row r="19">
@@ -5255,19 +5255,19 @@
         <v>434277</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>392638</v>
+        <v>391560</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>478454</v>
+        <v>479658</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1229663485643554</v>
+        <v>0.1229663485643555</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1111760838501588</v>
+        <v>0.1108708009300326</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.13547492836414</v>
+        <v>0.1358160185205469</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>612</v>
@@ -5276,19 +5276,19 @@
         <v>456129</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>417841</v>
+        <v>421945</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>492617</v>
+        <v>492731</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1220590328280833</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1118132848352474</v>
+        <v>0.1129115190966339</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1318231770660227</v>
+        <v>0.1318537263790713</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>981</v>
@@ -5297,19 +5297,19 @@
         <v>890406</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>831077</v>
+        <v>836770</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>949035</v>
+        <v>952940</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1224998786541941</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1143374943375074</v>
+        <v>0.1151206990279705</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1305657983150973</v>
+        <v>0.1311030444894251</v>
       </c>
     </row>
     <row r="21">
@@ -5326,19 +5326,19 @@
         <v>2252433</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2185619</v>
+        <v>2182269</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2318807</v>
+        <v>2312942</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6377802795096269</v>
+        <v>0.637780279509627</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6188618112408607</v>
+        <v>0.6179132312479461</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6565740354612595</v>
+        <v>0.6549133636397803</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3549</v>
@@ -5347,19 +5347,19 @@
         <v>2423199</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2367880</v>
+        <v>2367512</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2472263</v>
+        <v>2474469</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.648442232991334</v>
+        <v>0.6484422329913339</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6336390800971557</v>
+        <v>0.6335406659773731</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6615716484161632</v>
+        <v>0.6621619691189966</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5751</v>
@@ -5368,19 +5368,19 @@
         <v>4675633</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4593496</v>
+        <v>4582970</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4759320</v>
+        <v>4753235</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.6432618117744489</v>
+        <v>0.6432618117744487</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6319615808443274</v>
+        <v>0.6305134935422196</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6547752966439141</v>
+        <v>0.6539381483351369</v>
       </c>
     </row>
     <row r="22">
@@ -5397,19 +5397,19 @@
         <v>844965</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>784081</v>
+        <v>789174</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>903175</v>
+        <v>902362</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2392533719260175</v>
+        <v>0.2392533719260176</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2220137386534144</v>
+        <v>0.2234559391238113</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2557356276624496</v>
+        <v>0.2555054014308126</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1206</v>
@@ -5418,19 +5418,19 @@
         <v>857626</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>814417</v>
+        <v>812348</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>907682</v>
+        <v>906749</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2294987341805829</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.217935939777414</v>
+        <v>0.2173823319059277</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2428936675694281</v>
+        <v>0.2426437741523114</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2010</v>
@@ -5439,19 +5439,19 @@
         <v>1702592</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1630303</v>
+        <v>1637321</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1778467</v>
+        <v>1779020</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2342383095713572</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2242930285859297</v>
+        <v>0.2252585714403129</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2446769698463345</v>
+        <v>0.2447530887087991</v>
       </c>
     </row>
     <row r="23">
